--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N2">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O2">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P2">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q2">
-        <v>5.591689237005</v>
+        <v>8.022546872683334</v>
       </c>
       <c r="R2">
-        <v>50.325203133045</v>
+        <v>72.20292185415001</v>
       </c>
       <c r="S2">
-        <v>0.00618367540624966</v>
+        <v>0.01054965830798817</v>
       </c>
       <c r="T2">
-        <v>0.006183675406249658</v>
+        <v>0.01054965830798817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.270977</v>
       </c>
       <c r="O3">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P3">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q3">
-        <v>1.593560186715</v>
+        <v>1.653078628794445</v>
       </c>
       <c r="R3">
-        <v>14.342041680435</v>
+        <v>14.87770765915</v>
       </c>
       <c r="S3">
-        <v>0.001762268702229625</v>
+        <v>0.002173800286465136</v>
       </c>
       <c r="T3">
-        <v>0.001762268702229624</v>
+        <v>0.002173800286465136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N4">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O4">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P4">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q4">
-        <v>2.365214583435</v>
+        <v>0.2799003371</v>
       </c>
       <c r="R4">
-        <v>21.286931250915</v>
+        <v>2.5191030339</v>
       </c>
       <c r="S4">
-        <v>0.002615617326030767</v>
+        <v>0.0003680692632348627</v>
       </c>
       <c r="T4">
-        <v>0.002615617326030767</v>
+        <v>0.0003680692632348626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N5">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O5">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P5">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q5">
-        <v>16.65442320159</v>
+        <v>11.81633051197778</v>
       </c>
       <c r="R5">
-        <v>149.88980881431</v>
+        <v>106.3469746078</v>
       </c>
       <c r="S5">
-        <v>0.01841760920392395</v>
+        <v>0.01553848813025702</v>
       </c>
       <c r="T5">
-        <v>0.01841760920392395</v>
+        <v>0.01553848813025701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H6">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I6">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J6">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N6">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O6">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P6">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q6">
-        <v>0.271545709125</v>
+        <v>4.239646416366667</v>
       </c>
       <c r="R6">
-        <v>2.443911382125</v>
+        <v>38.1568177473</v>
       </c>
       <c r="S6">
-        <v>0.0003002939634192308</v>
+        <v>0.005575139883775455</v>
       </c>
       <c r="T6">
-        <v>0.0003002939634192308</v>
+        <v>0.005575139883775454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H7">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I7">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J7">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N7">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O7">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P7">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q7">
-        <v>13.314384515775</v>
+        <v>2.539814023927778</v>
       </c>
       <c r="R7">
-        <v>119.829460641975</v>
+        <v>22.85832621535</v>
       </c>
       <c r="S7">
-        <v>0.01472396418861922</v>
+        <v>0.003339858344674601</v>
       </c>
       <c r="T7">
-        <v>0.01472396418861922</v>
+        <v>0.003339858344674601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N8">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O8">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P8">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q8">
-        <v>5.954792359212888</v>
+        <v>8.235895321265334</v>
       </c>
       <c r="R8">
-        <v>53.593131232916</v>
+        <v>74.123057891388</v>
       </c>
       <c r="S8">
-        <v>0.006585219868318517</v>
+        <v>0.01083021176174776</v>
       </c>
       <c r="T8">
-        <v>0.006585219868318514</v>
+        <v>0.01083021176174776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.270977</v>
       </c>
       <c r="O9">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P9">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q9">
         <v>1.697039950109778</v>
@@ -1013,10 +1013,10 @@
         <v>15.273359550988</v>
       </c>
       <c r="S9">
-        <v>0.0018767037576891</v>
+        <v>0.002231609474246088</v>
       </c>
       <c r="T9">
-        <v>0.0018767037576891</v>
+        <v>0.002231609474246088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J10">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N10">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O10">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P10">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q10">
-        <v>2.518802660943555</v>
+        <v>0.287343896312</v>
       </c>
       <c r="R10">
-        <v>22.669223948492</v>
+        <v>2.586095066808</v>
       </c>
       <c r="S10">
-        <v>0.002785465609318327</v>
+        <v>0.0003778575521072232</v>
       </c>
       <c r="T10">
-        <v>0.002785465609318326</v>
+        <v>0.0003778575521072232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J11">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N11">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O11">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P11">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q11">
-        <v>17.73589837067644</v>
+        <v>12.13056934693511</v>
       </c>
       <c r="R11">
-        <v>159.623085336088</v>
+        <v>109.175124122416</v>
       </c>
       <c r="S11">
-        <v>0.01961357899446465</v>
+        <v>0.01595171255742591</v>
       </c>
       <c r="T11">
-        <v>0.01961357899446465</v>
+        <v>0.01595171255742591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>56.364044</v>
       </c>
       <c r="I12">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J12">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N12">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O12">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P12">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q12">
-        <v>0.2891788590777777</v>
+        <v>4.352393901650666</v>
       </c>
       <c r="R12">
-        <v>2.6026097317</v>
+        <v>39.171545114856</v>
       </c>
       <c r="S12">
-        <v>0.000319793916130499</v>
+        <v>0.005723402955803263</v>
       </c>
       <c r="T12">
-        <v>0.0003197939161304989</v>
+        <v>0.005723402955803263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>56.364044</v>
       </c>
       <c r="I13">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J13">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N13">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O13">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P13">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q13">
-        <v>14.17897022199778</v>
+        <v>2.607356836739111</v>
       </c>
       <c r="R13">
-        <v>127.61073199798</v>
+        <v>23.466211530652</v>
       </c>
       <c r="S13">
-        <v>0.01568008266043694</v>
+        <v>0.003428677220728315</v>
       </c>
       <c r="T13">
-        <v>0.01568008266043693</v>
+        <v>0.003428677220728315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H14">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N14">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O14">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P14">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q14">
-        <v>14.20609576065877</v>
+        <v>17.79426845752766</v>
       </c>
       <c r="R14">
-        <v>127.854861845929</v>
+        <v>160.148416117749</v>
       </c>
       <c r="S14">
-        <v>0.01571007995091389</v>
+        <v>0.02339948336191397</v>
       </c>
       <c r="T14">
-        <v>0.01571007995091388</v>
+        <v>0.02339948336191398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H15">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.270977</v>
       </c>
       <c r="O15">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P15">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q15">
-        <v>4.048556286538555</v>
+        <v>3.666581868449889</v>
       </c>
       <c r="R15">
-        <v>36.437006578847</v>
+        <v>32.999236816049</v>
       </c>
       <c r="S15">
-        <v>0.004477172617928789</v>
+        <v>0.004821559348206503</v>
       </c>
       <c r="T15">
-        <v>0.004477172617928789</v>
+        <v>0.004821559348206503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H16">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N16">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O16">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P16">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q16">
-        <v>6.009000758558109</v>
+        <v>0.620828001226</v>
       </c>
       <c r="R16">
-        <v>54.08100682702299</v>
+        <v>5.587452011033999</v>
       </c>
       <c r="S16">
-        <v>0.006645167253023812</v>
+        <v>0.0008163895312680071</v>
       </c>
       <c r="T16">
-        <v>0.006645167253023812</v>
+        <v>0.0008163895312680071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H17">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I17">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J17">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N17">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O17">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P17">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q17">
-        <v>42.31178107584688</v>
+        <v>26.20900328160755</v>
       </c>
       <c r="R17">
-        <v>380.806029682622</v>
+        <v>235.881029534468</v>
       </c>
       <c r="S17">
-        <v>0.04679128416182764</v>
+        <v>0.03446486927429066</v>
       </c>
       <c r="T17">
-        <v>0.04679128416182764</v>
+        <v>0.03446486927429066</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H18">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I18">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J18">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N18">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O18">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P18">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q18">
-        <v>0.6898817483805554</v>
+        <v>9.403672885315332</v>
       </c>
       <c r="R18">
-        <v>6.208935735424999</v>
+        <v>84.63305596783799</v>
       </c>
       <c r="S18">
-        <v>0.0007629187924911039</v>
+        <v>0.01236584059333621</v>
       </c>
       <c r="T18">
-        <v>0.0007629187924911039</v>
+        <v>0.01236584059333621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H19">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I19">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J19">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N19">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O19">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P19">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q19">
-        <v>33.82616833811056</v>
+        <v>5.633389656824555</v>
       </c>
       <c r="R19">
-        <v>304.435515042995</v>
+        <v>50.70050691142099</v>
       </c>
       <c r="S19">
-        <v>0.03740730866368212</v>
+        <v>0.007407913838137029</v>
       </c>
       <c r="T19">
-        <v>0.03740730866368211</v>
+        <v>0.00740791383813703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H20">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N20">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O20">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P20">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q20">
-        <v>0.5578431900125557</v>
+        <v>0.281729384069</v>
       </c>
       <c r="R20">
-        <v>5.020588710113</v>
+        <v>2.535564456621</v>
       </c>
       <c r="S20">
-        <v>0.000616901452926972</v>
+        <v>0.0003704744620898438</v>
       </c>
       <c r="T20">
-        <v>0.0006169014529269719</v>
+        <v>0.0003704744620898439</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H21">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.270977</v>
       </c>
       <c r="O21">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P21">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q21">
-        <v>0.1589782014621112</v>
+        <v>0.05805149303566667</v>
       </c>
       <c r="R21">
-        <v>1.430803813159</v>
+        <v>0.522463437321</v>
       </c>
       <c r="S21">
-        <v>0.0001758090539090131</v>
+        <v>7.633777969937853E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001758090539090131</v>
+        <v>7.633777969937853E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H22">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I22">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J22">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N22">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O22">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P22">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q22">
-        <v>0.2359606895812222</v>
+        <v>0.009829316154</v>
       </c>
       <c r="R22">
-        <v>2.123646206231</v>
+        <v>0.088463845386</v>
       </c>
       <c r="S22">
-        <v>0.0002609415958506725</v>
+        <v>1.292556197820068E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002609415958506725</v>
+        <v>1.292556197820068E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H23">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I23">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J23">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N23">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O23">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P23">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q23">
-        <v>1.661493722703778</v>
+        <v>0.4149564433746667</v>
       </c>
       <c r="R23">
-        <v>14.953443504334</v>
+        <v>3.734607990372</v>
       </c>
       <c r="S23">
-        <v>0.001837394289140528</v>
+        <v>0.0005456681973659279</v>
       </c>
       <c r="T23">
-        <v>0.001837394289140528</v>
+        <v>0.0005456681973659279</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H24">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I24">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J24">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N24">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O24">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P24">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q24">
-        <v>0.02709019013611112</v>
+        <v>0.148884511678</v>
       </c>
       <c r="R24">
-        <v>0.243811711225</v>
+        <v>1.339960605102</v>
       </c>
       <c r="S24">
-        <v>2.995819964147761E-05</v>
+        <v>0.0001957833030434166</v>
       </c>
       <c r="T24">
-        <v>2.995819964147761E-05</v>
+        <v>0.0001957833030434166</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H25">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I25">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J25">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N25">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O25">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P25">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q25">
-        <v>1.328281743946112</v>
+        <v>0.08919115736766667</v>
       </c>
       <c r="R25">
-        <v>11.954535695515</v>
+        <v>0.802720416309</v>
       </c>
       <c r="S25">
-        <v>0.001468905513964032</v>
+        <v>0.0001172864738910732</v>
       </c>
       <c r="T25">
-        <v>0.001468905513964032</v>
+        <v>0.0001172864738910733</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H26">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I26">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J26">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N26">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O26">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P26">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q26">
-        <v>84.53159474372411</v>
+        <v>171.3272578185413</v>
       </c>
       <c r="R26">
-        <v>760.784352693517</v>
+        <v>1541.945320366872</v>
       </c>
       <c r="S26">
-        <v>0.093480864424398</v>
+        <v>0.2252955398720735</v>
       </c>
       <c r="T26">
-        <v>0.09348086442439796</v>
+        <v>0.2252955398720735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H27">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I27">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J27">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.270977</v>
       </c>
       <c r="O27">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P27">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q27">
-        <v>24.09042745288123</v>
+        <v>35.30268291658578</v>
       </c>
       <c r="R27">
-        <v>216.813847075931</v>
+        <v>317.724146249272</v>
       </c>
       <c r="S27">
-        <v>0.02664085528583714</v>
+        <v>0.04642306838908662</v>
       </c>
       <c r="T27">
-        <v>0.02664085528583713</v>
+        <v>0.04642306838908662</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H28">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I28">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J28">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N28">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O28">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P28">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q28">
-        <v>35.75580690817544</v>
+        <v>5.977472986928</v>
       </c>
       <c r="R28">
-        <v>321.802262173579</v>
+        <v>53.79725688235199</v>
       </c>
       <c r="S28">
-        <v>0.03954123600887416</v>
+        <v>0.007860383810537691</v>
       </c>
       <c r="T28">
-        <v>0.03954123600887415</v>
+        <v>0.007860383810537691</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H29">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I29">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J29">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N29">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O29">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P29">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q29">
-        <v>251.7709574148896</v>
+        <v>252.3462357057671</v>
       </c>
       <c r="R29">
-        <v>2265.938616734006</v>
+        <v>2271.116121351904</v>
       </c>
       <c r="S29">
-        <v>0.2784256798591812</v>
+        <v>0.3318355884049154</v>
       </c>
       <c r="T29">
-        <v>0.2784256798591811</v>
+        <v>0.3318355884049154</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H30">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I30">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J30">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N30">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O30">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P30">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q30">
-        <v>4.105054995947222</v>
+        <v>90.54069813036267</v>
       </c>
       <c r="R30">
-        <v>36.945494963525</v>
+        <v>814.8662831732639</v>
       </c>
       <c r="S30">
-        <v>0.004539652785378573</v>
+        <v>0.119061121536651</v>
       </c>
       <c r="T30">
-        <v>0.004539652785378573</v>
+        <v>0.119061121536651</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H31">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I31">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J31">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N31">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O31">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P31">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q31">
-        <v>201.2783809052373</v>
+        <v>54.23955496854311</v>
       </c>
       <c r="R31">
-        <v>1811.505428147135</v>
+        <v>488.155994716888</v>
       </c>
       <c r="S31">
-        <v>0.222587508185651</v>
+        <v>0.07132507678376244</v>
       </c>
       <c r="T31">
-        <v>0.2225875081856509</v>
+        <v>0.07132507678376246</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H32">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I32">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J32">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N32">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O32">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P32">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q32">
-        <v>16.231928506596</v>
+        <v>8.016390705007</v>
       </c>
       <c r="R32">
-        <v>146.087356559364</v>
+        <v>72.147516345063</v>
       </c>
       <c r="S32">
-        <v>0.01795038544667083</v>
+        <v>0.0105415629404568</v>
       </c>
       <c r="T32">
-        <v>0.01795038544667082</v>
+        <v>0.01054156294045681</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H33">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I33">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J33">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.270977</v>
       </c>
       <c r="O33">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P33">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q33">
-        <v>4.625892807228001</v>
+        <v>1.651810125240333</v>
       </c>
       <c r="R33">
-        <v>41.63303526505201</v>
+        <v>14.866291127163</v>
       </c>
       <c r="S33">
-        <v>0.005115631139638278</v>
+        <v>0.002172132202841479</v>
       </c>
       <c r="T33">
-        <v>0.005115631139638278</v>
+        <v>0.002172132202841479</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H34">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I34">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J34">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N34">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O34">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P34">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q34">
-        <v>6.865902662651999</v>
+        <v>0.279685553262</v>
       </c>
       <c r="R34">
-        <v>61.793123963868</v>
+        <v>2.517169979358</v>
       </c>
       <c r="S34">
-        <v>0.00759278844678529</v>
+        <v>0.0003677868222423775</v>
       </c>
       <c r="T34">
-        <v>0.00759278844678529</v>
+        <v>0.0003677868222423775</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H35">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I35">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J35">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N35">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O35">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P35">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q35">
-        <v>48.345570590328</v>
+        <v>11.80726315305733</v>
       </c>
       <c r="R35">
-        <v>435.110135312952</v>
+        <v>106.265368377516</v>
       </c>
       <c r="S35">
-        <v>0.05346386452989694</v>
+        <v>0.01552656454291192</v>
       </c>
       <c r="T35">
-        <v>0.05346386452989694</v>
+        <v>0.01552656454291192</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H36">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I36">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J36">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N36">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O36">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P36">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q36">
-        <v>0.7882609977</v>
+        <v>4.236393088634</v>
       </c>
       <c r="R36">
-        <v>7.0943489793</v>
+        <v>38.127537797706</v>
       </c>
       <c r="S36">
-        <v>0.0008717133478959376</v>
+        <v>0.005570861754088184</v>
       </c>
       <c r="T36">
-        <v>0.0008717133478959376</v>
+        <v>0.005570861754088184</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.213492</v>
+        <v>18.287273</v>
       </c>
       <c r="H37">
-        <v>153.640476</v>
+        <v>54.861819</v>
       </c>
       <c r="I37">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J37">
-        <v>0.1277360883085496</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N37">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O37">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P37">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q37">
-        <v>38.64988349838001</v>
+        <v>2.537865076636333</v>
       </c>
       <c r="R37">
-        <v>347.8489514854201</v>
+        <v>22.840785689727</v>
       </c>
       <c r="S37">
-        <v>0.04274170539766234</v>
+        <v>0.003337295476758549</v>
       </c>
       <c r="T37">
-        <v>0.04274170539766233</v>
+        <v>0.003337295476758549</v>
       </c>
     </row>
   </sheetData>
